--- a/mf-intelligence/data/separated_files/nippon/Nippon India Banking and Financial Services Fund/Nippon India Banking and Financial Services Fund_Mar_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Banking and Financial Services Fund/Nippon India Banking and Financial Services Fund_Mar_2025.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
